--- a/SB3/space_info.xlsx
+++ b/SB3/space_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bong\projects\snake_RL\SB3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A44BD4-7BC4-44D0-BBDB-8910C997141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138656EF-F49F-4EDE-801C-E37A1AFE2655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1035" yWindow="4635" windowWidth="16410" windowHeight="11295" activeTab="1" xr2:uid="{C5BE6D80-EF30-4B4A-961B-6CFA766C2479}"/>
+    <workbookView xWindow="-16320" yWindow="-4035" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{C5BE6D80-EF30-4B4A-961B-6CFA766C2479}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="215">
   <si>
     <t>D_phase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,6 +689,18 @@
   </si>
   <si>
     <t>-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gait_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2324,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925D485A-6FF0-4450-AECE-F6208C2128A9}">
-  <dimension ref="A1:BY83"/>
+  <dimension ref="A1:BY84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB58" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81:BY81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2521,16 +2533,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
+      <c r="C14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2539,7 +2551,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -2548,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2557,7 +2569,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -2566,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2575,16 +2587,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2593,16 +2605,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D18" s="3">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2611,7 +2623,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2">
         <v>6</v>
@@ -2620,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2629,16 +2641,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2">
         <v>7</v>
       </c>
       <c r="C20" s="3">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2647,16 +2659,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
         <v>8</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="D21" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2665,16 +2677,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2">
         <v>9</v>
       </c>
       <c r="C22" s="3">
-        <v>-1000</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2683,7 +2695,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="2">
         <v>10</v>
@@ -2701,7 +2713,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="2">
         <v>11</v>
@@ -2719,16 +2731,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2">
         <v>12</v>
       </c>
       <c r="C25" s="3">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="D25" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2737,7 +2749,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="2">
         <v>13</v>
@@ -2755,7 +2767,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="2">
         <v>14</v>
@@ -2773,16 +2785,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="2">
         <v>15</v>
       </c>
       <c r="C28" s="3">
-        <v>-2</v>
+        <v>-100</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2791,7 +2803,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" s="2">
         <v>16</v>
@@ -2809,7 +2821,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="2">
         <v>17</v>
@@ -2827,7 +2839,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="2">
         <v>18</v>
@@ -2845,7 +2857,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B32" s="2">
         <v>19</v>
@@ -2863,7 +2875,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="2">
         <v>20</v>
@@ -2881,7 +2893,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="2">
         <v>21</v>
@@ -2899,7 +2911,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="2">
         <v>22</v>
@@ -2917,7 +2929,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" s="2">
         <v>23</v>
@@ -2935,7 +2947,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B37" s="2">
         <v>24</v>
@@ -2953,7 +2965,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B38" s="2">
         <v>25</v>
@@ -2971,7 +2983,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B39" s="2">
         <v>26</v>
@@ -2989,7 +3001,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B40" s="2">
         <v>27</v>
@@ -3007,7 +3019,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B41" s="2">
         <v>28</v>
@@ -3025,16 +3037,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42" s="2">
         <v>29</v>
       </c>
       <c r="C42" s="3">
-        <v>-100</v>
+        <v>-2</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3043,7 +3055,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B43" s="2">
         <v>30</v>
@@ -3061,7 +3073,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B44" s="2">
         <v>31</v>
@@ -3079,7 +3091,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B45" s="2">
         <v>32</v>
@@ -3097,7 +3109,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="2">
         <v>33</v>
@@ -3115,7 +3127,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" s="2">
         <v>34</v>
@@ -3133,7 +3145,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B48" s="2">
         <v>35</v>
@@ -3151,7 +3163,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B49" s="2">
         <v>36</v>
@@ -3169,7 +3181,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B50" s="2">
         <v>37</v>
@@ -3187,7 +3199,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B51" s="2">
         <v>38</v>
@@ -3205,7 +3217,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="2">
         <v>39</v>
@@ -3223,7 +3235,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53" s="2">
         <v>40</v>
@@ -3241,7 +3253,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B54" s="2">
         <v>41</v>
@@ -3259,7 +3271,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B55" s="2">
         <v>42</v>
@@ -3277,16 +3289,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B56" s="2">
         <v>43</v>
       </c>
       <c r="C56" s="3">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="D56" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -3295,7 +3307,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" s="2">
         <v>44</v>
@@ -3313,7 +3325,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B58" s="2">
         <v>45</v>
@@ -3331,7 +3343,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59" s="2">
         <v>46</v>
@@ -3349,7 +3361,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="2">
         <v>47</v>
@@ -3367,7 +3379,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B61" s="2">
         <v>48</v>
@@ -3385,7 +3397,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B62" s="2">
         <v>49</v>
@@ -3403,7 +3415,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" s="2">
         <v>50</v>
@@ -3421,7 +3433,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B64" s="2">
         <v>51</v>
@@ -3439,7 +3451,7 @@
     </row>
     <row r="65" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65" s="2">
         <v>52</v>
@@ -3457,7 +3469,7 @@
     </row>
     <row r="66" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B66" s="2">
         <v>53</v>
@@ -3475,7 +3487,7 @@
     </row>
     <row r="67" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B67" s="2">
         <v>54</v>
@@ -3493,7 +3505,7 @@
     </row>
     <row r="68" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B68" s="2">
         <v>55</v>
@@ -3504,10 +3516,14 @@
       <c r="D68" s="3">
         <v>10</v>
       </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="2">
         <v>56</v>
@@ -3521,21 +3537,21 @@
     </row>
     <row r="70" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B70" s="2">
         <v>57</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>205</v>
+      <c r="C70" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D70" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B71" s="2">
         <v>58</v>
@@ -3546,14 +3562,10 @@
       <c r="D71" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B72" s="2">
         <v>59</v>
@@ -3568,12 +3580,10 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B73" s="2">
         <v>60</v>
@@ -3584,10 +3594,16 @@
       <c r="D73" s="3" t="s">
         <v>205</v>
       </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B74" s="2">
         <v>61</v>
@@ -3601,7 +3617,7 @@
     </row>
     <row r="75" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B75" s="2">
         <v>62</v>
@@ -3615,21 +3631,21 @@
     </row>
     <row r="76" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B76" s="2">
         <v>63</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B77" s="2">
         <v>64</v>
@@ -3643,7 +3659,7 @@
     </row>
     <row r="78" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B78" s="2">
         <v>65</v>
@@ -3654,226 +3670,10 @@
       <c r="D78" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F78" t="s">
-        <v>209</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
-        <v>0</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0</v>
-      </c>
-      <c r="J78" s="3">
-        <v>0</v>
-      </c>
-      <c r="K78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="L78" s="3">
-        <v>0</v>
-      </c>
-      <c r="M78" s="3">
-        <v>0</v>
-      </c>
-      <c r="N78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="O78" s="3">
-        <v>1</v>
-      </c>
-      <c r="P78" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R78" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="S78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="W78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="X78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="Y78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="Z78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="AA78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="AB78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="AC78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="AD78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="AE78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="AF78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="AG78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="AH78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="AI78" s="3">
-        <v>-2</v>
-      </c>
-      <c r="AJ78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AK78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AL78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AM78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AN78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AO78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AP78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AQ78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AR78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AS78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AT78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AU78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AV78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AW78" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AX78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="AY78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="AZ78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="BA78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="BB78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="BC78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="BD78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="BE78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="BF78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="BG78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="BH78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="BI78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="BJ78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="BK78" s="3">
-        <v>-10</v>
-      </c>
-      <c r="BL78" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="BM78" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="BN78" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="BO78" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="BP78" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="BQ78" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="BR78" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="BS78" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="BT78" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="BU78" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="BV78" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="BW78" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="BX78" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="BY78" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B79" s="2">
         <v>66</v>
@@ -3884,527 +3684,527 @@
       <c r="D79" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" t="s">
+        <v>209</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="L79" s="3">
+        <v>0</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="O79" s="3">
+        <v>1</v>
+      </c>
+      <c r="P79" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R79" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="W79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="X79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="Y79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="Z79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AA79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AB79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AC79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AD79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AE79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AF79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AG79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AH79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AI79" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AJ79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AK79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AL79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AM79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AN79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AO79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AP79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AQ79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AR79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AS79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AT79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AU79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AV79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AW79" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AX79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AY79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AZ79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BA79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BB79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BC79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BD79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BE79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BF79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BG79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BH79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BI79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BJ79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BK79" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BL79" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BM79" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN79" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BO79" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP79" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ79" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BR79" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS79" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT79" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BU79" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV79" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW79" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BX79" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BY79" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B80" s="2">
+        <v>67</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G79" s="2" t="str">
-        <f>"[ "&amp;G78&amp;", "</f>
+      <c r="G80" s="2" t="str">
+        <f>"[ "&amp;G79&amp;", "</f>
         <v xml:space="preserve">[ 0, </v>
       </c>
-      <c r="H79" s="2" t="str">
-        <f>H78&amp;", "</f>
+      <c r="H80" s="2" t="str">
+        <f>H79&amp;", "</f>
         <v xml:space="preserve">0, </v>
       </c>
-      <c r="I79" s="2" t="str">
-        <f t="shared" ref="I79:V79" si="0">I78&amp;", "</f>
+      <c r="I80" s="2" t="str">
+        <f t="shared" ref="I80:V80" si="0">I79&amp;", "</f>
         <v xml:space="preserve">0, </v>
       </c>
-      <c r="J79" s="2" t="str">
+      <c r="J80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">0, </v>
       </c>
-      <c r="K79" s="2" t="str">
+      <c r="K80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="L79" s="2" t="str">
+      <c r="L80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">0, </v>
       </c>
-      <c r="M79" s="2" t="str">
+      <c r="M80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">0, </v>
       </c>
-      <c r="N79" s="2" t="str">
+      <c r="N80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="O79" s="2" t="str">
+      <c r="O80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">1, </v>
       </c>
-      <c r="P79" s="2" t="str">
+      <c r="P80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">-1000, </v>
       </c>
-      <c r="Q79" s="2" t="str">
+      <c r="Q80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">-1000, </v>
       </c>
-      <c r="R79" s="2" t="str">
+      <c r="R80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">-1000, </v>
       </c>
-      <c r="S79" s="2" t="str">
+      <c r="S80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="T79" s="2" t="str">
+      <c r="T80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="U79" s="2" t="str">
+      <c r="U80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="V79" s="2" t="str">
+      <c r="V80" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="W79" s="2" t="str">
-        <f t="shared" ref="W79" si="1">W78&amp;", "</f>
+      <c r="W80" s="2" t="str">
+        <f t="shared" ref="W80" si="1">W79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="X79" s="2" t="str">
-        <f t="shared" ref="X79" si="2">X78&amp;", "</f>
+      <c r="X80" s="2" t="str">
+        <f t="shared" ref="X80" si="2">X79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="Y79" s="2" t="str">
-        <f t="shared" ref="Y79" si="3">Y78&amp;", "</f>
+      <c r="Y80" s="2" t="str">
+        <f t="shared" ref="Y80" si="3">Y79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="Z79" s="2" t="str">
-        <f t="shared" ref="Z79" si="4">Z78&amp;", "</f>
+      <c r="Z80" s="2" t="str">
+        <f t="shared" ref="Z80" si="4">Z79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="AA79" s="2" t="str">
-        <f t="shared" ref="AA79" si="5">AA78&amp;", "</f>
+      <c r="AA80" s="2" t="str">
+        <f t="shared" ref="AA80" si="5">AA79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="AB79" s="2" t="str">
-        <f t="shared" ref="AB79" si="6">AB78&amp;", "</f>
+      <c r="AB80" s="2" t="str">
+        <f t="shared" ref="AB80" si="6">AB79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="AC79" s="2" t="str">
-        <f t="shared" ref="AC79" si="7">AC78&amp;", "</f>
+      <c r="AC80" s="2" t="str">
+        <f t="shared" ref="AC80" si="7">AC79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="AD79" s="2" t="str">
-        <f t="shared" ref="AD79" si="8">AD78&amp;", "</f>
+      <c r="AD80" s="2" t="str">
+        <f t="shared" ref="AD80" si="8">AD79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="AE79" s="2" t="str">
-        <f t="shared" ref="AE79" si="9">AE78&amp;", "</f>
+      <c r="AE80" s="2" t="str">
+        <f t="shared" ref="AE80" si="9">AE79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="AF79" s="2" t="str">
-        <f t="shared" ref="AF79" si="10">AF78&amp;", "</f>
+      <c r="AF80" s="2" t="str">
+        <f t="shared" ref="AF80" si="10">AF79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="AG79" s="2" t="str">
-        <f t="shared" ref="AG79" si="11">AG78&amp;", "</f>
+      <c r="AG80" s="2" t="str">
+        <f t="shared" ref="AG80" si="11">AG79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="AH79" s="2" t="str">
-        <f t="shared" ref="AH79" si="12">AH78&amp;", "</f>
+      <c r="AH80" s="2" t="str">
+        <f t="shared" ref="AH80" si="12">AH79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="AI79" s="2" t="str">
-        <f t="shared" ref="AI79:AJ79" si="13">AI78&amp;", "</f>
+      <c r="AI80" s="2" t="str">
+        <f t="shared" ref="AI80:AJ80" si="13">AI79&amp;", "</f>
         <v xml:space="preserve">-2, </v>
       </c>
-      <c r="AJ79" s="2" t="str">
+      <c r="AJ80" s="2" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AK79" s="2" t="str">
-        <f t="shared" ref="AK79" si="14">AK78&amp;", "</f>
+      <c r="AK80" s="2" t="str">
+        <f t="shared" ref="AK80" si="14">AK79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AL79" s="2" t="str">
-        <f t="shared" ref="AL79" si="15">AL78&amp;", "</f>
+      <c r="AL80" s="2" t="str">
+        <f t="shared" ref="AL80" si="15">AL79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AM79" s="2" t="str">
-        <f t="shared" ref="AM79" si="16">AM78&amp;", "</f>
+      <c r="AM80" s="2" t="str">
+        <f t="shared" ref="AM80" si="16">AM79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AN79" s="2" t="str">
-        <f t="shared" ref="AN79" si="17">AN78&amp;", "</f>
+      <c r="AN80" s="2" t="str">
+        <f t="shared" ref="AN80" si="17">AN79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AO79" s="2" t="str">
-        <f t="shared" ref="AO79" si="18">AO78&amp;", "</f>
+      <c r="AO80" s="2" t="str">
+        <f t="shared" ref="AO80" si="18">AO79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AP79" s="2" t="str">
-        <f t="shared" ref="AP79" si="19">AP78&amp;", "</f>
+      <c r="AP80" s="2" t="str">
+        <f t="shared" ref="AP80" si="19">AP79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AQ79" s="2" t="str">
-        <f t="shared" ref="AQ79" si="20">AQ78&amp;", "</f>
+      <c r="AQ80" s="2" t="str">
+        <f t="shared" ref="AQ80" si="20">AQ79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AR79" s="2" t="str">
-        <f t="shared" ref="AR79" si="21">AR78&amp;", "</f>
+      <c r="AR80" s="2" t="str">
+        <f t="shared" ref="AR80" si="21">AR79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AS79" s="2" t="str">
-        <f t="shared" ref="AS79" si="22">AS78&amp;", "</f>
+      <c r="AS80" s="2" t="str">
+        <f t="shared" ref="AS80" si="22">AS79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AT79" s="2" t="str">
-        <f t="shared" ref="AT79" si="23">AT78&amp;", "</f>
+      <c r="AT80" s="2" t="str">
+        <f t="shared" ref="AT80" si="23">AT79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AU79" s="2" t="str">
-        <f t="shared" ref="AU79" si="24">AU78&amp;", "</f>
+      <c r="AU80" s="2" t="str">
+        <f t="shared" ref="AU80" si="24">AU79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AV79" s="2" t="str">
-        <f t="shared" ref="AV79" si="25">AV78&amp;", "</f>
+      <c r="AV80" s="2" t="str">
+        <f t="shared" ref="AV80" si="25">AV79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AW79" s="2" t="str">
-        <f t="shared" ref="AW79:AX79" si="26">AW78&amp;", "</f>
+      <c r="AW80" s="2" t="str">
+        <f t="shared" ref="AW80:AX80" si="26">AW79&amp;", "</f>
         <v xml:space="preserve">-100, </v>
       </c>
-      <c r="AX79" s="2" t="str">
+      <c r="AX80" s="2" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="AY79" s="2" t="str">
-        <f t="shared" ref="AY79" si="27">AY78&amp;", "</f>
+      <c r="AY80" s="2" t="str">
+        <f t="shared" ref="AY80" si="27">AY79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="AZ79" s="2" t="str">
-        <f t="shared" ref="AZ79" si="28">AZ78&amp;", "</f>
+      <c r="AZ80" s="2" t="str">
+        <f t="shared" ref="AZ80" si="28">AZ79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="BA79" s="2" t="str">
-        <f t="shared" ref="BA79" si="29">BA78&amp;", "</f>
+      <c r="BA80" s="2" t="str">
+        <f t="shared" ref="BA80" si="29">BA79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="BB79" s="2" t="str">
-        <f t="shared" ref="BB79" si="30">BB78&amp;", "</f>
+      <c r="BB80" s="2" t="str">
+        <f t="shared" ref="BB80" si="30">BB79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="BC79" s="2" t="str">
-        <f t="shared" ref="BC79" si="31">BC78&amp;", "</f>
+      <c r="BC80" s="2" t="str">
+        <f t="shared" ref="BC80" si="31">BC79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="BD79" s="2" t="str">
-        <f t="shared" ref="BD79" si="32">BD78&amp;", "</f>
+      <c r="BD80" s="2" t="str">
+        <f t="shared" ref="BD80" si="32">BD79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="BE79" s="2" t="str">
-        <f t="shared" ref="BE79" si="33">BE78&amp;", "</f>
+      <c r="BE80" s="2" t="str">
+        <f t="shared" ref="BE80" si="33">BE79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="BF79" s="2" t="str">
-        <f t="shared" ref="BF79" si="34">BF78&amp;", "</f>
+      <c r="BF80" s="2" t="str">
+        <f t="shared" ref="BF80" si="34">BF79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="BG79" s="2" t="str">
-        <f t="shared" ref="BG79" si="35">BG78&amp;", "</f>
+      <c r="BG80" s="2" t="str">
+        <f t="shared" ref="BG80" si="35">BG79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="BH79" s="2" t="str">
-        <f t="shared" ref="BH79" si="36">BH78&amp;", "</f>
+      <c r="BH80" s="2" t="str">
+        <f t="shared" ref="BH80" si="36">BH79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="BI79" s="2" t="str">
-        <f t="shared" ref="BI79" si="37">BI78&amp;", "</f>
+      <c r="BI80" s="2" t="str">
+        <f t="shared" ref="BI80" si="37">BI79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="BJ79" s="2" t="str">
-        <f t="shared" ref="BJ79" si="38">BJ78&amp;", "</f>
+      <c r="BJ80" s="2" t="str">
+        <f t="shared" ref="BJ80" si="38">BJ79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="BK79" s="2" t="str">
-        <f t="shared" ref="BK79:BL79" si="39">BK78&amp;", "</f>
+      <c r="BK80" s="2" t="str">
+        <f t="shared" ref="BK80:BL80" si="39">BK79&amp;", "</f>
         <v xml:space="preserve">-10, </v>
       </c>
-      <c r="BL79" s="2" t="str">
+      <c r="BL80" s="2" t="str">
         <f t="shared" si="39"/>
         <v xml:space="preserve">-inf, </v>
       </c>
-      <c r="BM79" s="2" t="str">
-        <f t="shared" ref="BM79" si="40">BM78&amp;", "</f>
+      <c r="BM80" s="2" t="str">
+        <f t="shared" ref="BM80" si="40">BM79&amp;", "</f>
         <v xml:space="preserve">-inf, </v>
       </c>
-      <c r="BN79" s="2" t="str">
-        <f t="shared" ref="BN79" si="41">BN78&amp;", "</f>
+      <c r="BN80" s="2" t="str">
+        <f t="shared" ref="BN80" si="41">BN79&amp;", "</f>
         <v xml:space="preserve">-inf, </v>
       </c>
-      <c r="BO79" s="2" t="str">
-        <f t="shared" ref="BO79" si="42">BO78&amp;", "</f>
+      <c r="BO80" s="2" t="str">
+        <f t="shared" ref="BO80" si="42">BO79&amp;", "</f>
         <v xml:space="preserve">-inf, </v>
       </c>
-      <c r="BP79" s="2" t="str">
-        <f t="shared" ref="BP79" si="43">BP78&amp;", "</f>
+      <c r="BP80" s="2" t="str">
+        <f t="shared" ref="BP80" si="43">BP79&amp;", "</f>
         <v xml:space="preserve">-inf, </v>
       </c>
-      <c r="BQ79" s="2" t="str">
-        <f t="shared" ref="BQ79" si="44">BQ78&amp;", "</f>
+      <c r="BQ80" s="2" t="str">
+        <f t="shared" ref="BQ80" si="44">BQ79&amp;", "</f>
         <v xml:space="preserve">-inf, </v>
       </c>
-      <c r="BR79" s="2" t="str">
-        <f t="shared" ref="BR79" si="45">BR78&amp;", "</f>
+      <c r="BR80" s="2" t="str">
+        <f t="shared" ref="BR80" si="45">BR79&amp;", "</f>
         <v xml:space="preserve">-1, </v>
       </c>
-      <c r="BS79" s="2" t="str">
-        <f t="shared" ref="BS79" si="46">BS78&amp;", "</f>
+      <c r="BS80" s="2" t="str">
+        <f t="shared" ref="BS80" si="46">BS79&amp;", "</f>
         <v xml:space="preserve">-1, </v>
       </c>
-      <c r="BT79" s="2" t="str">
-        <f t="shared" ref="BT79" si="47">BT78&amp;", "</f>
+      <c r="BT80" s="2" t="str">
+        <f t="shared" ref="BT80" si="47">BT79&amp;", "</f>
         <v xml:space="preserve">-1, </v>
       </c>
-      <c r="BU79" s="2" t="str">
-        <f t="shared" ref="BU79" si="48">BU78&amp;", "</f>
+      <c r="BU80" s="2" t="str">
+        <f t="shared" ref="BU80" si="48">BU79&amp;", "</f>
         <v xml:space="preserve">-1, </v>
       </c>
-      <c r="BV79" s="2" t="str">
-        <f t="shared" ref="BV79" si="49">BV78&amp;", "</f>
+      <c r="BV80" s="2" t="str">
+        <f t="shared" ref="BV80" si="49">BV79&amp;", "</f>
         <v xml:space="preserve">-1, </v>
       </c>
-      <c r="BW79" s="2" t="str">
-        <f t="shared" ref="BW79" si="50">BW78&amp;", "</f>
+      <c r="BW80" s="2" t="str">
+        <f t="shared" ref="BW80" si="50">BW79&amp;", "</f>
         <v xml:space="preserve">-1, </v>
       </c>
-      <c r="BX79" s="2" t="str">
-        <f t="shared" ref="BX79:BX81" si="51">BX78&amp;", "</f>
+      <c r="BX80" s="2" t="str">
+        <f t="shared" ref="BX80:BX82" si="51">BX79&amp;", "</f>
         <v xml:space="preserve">-1, </v>
       </c>
-      <c r="BY79" s="2" t="str">
-        <f>BY78&amp;"]"</f>
+      <c r="BY80" s="2" t="str">
+        <f>BY79&amp;"]"</f>
         <v>-1]</v>
       </c>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B80" s="2">
-        <v>67</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F80" t="s">
-        <v>210</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H80" s="3">
-        <v>1</v>
-      </c>
-      <c r="I80" s="3">
-        <v>90</v>
-      </c>
-      <c r="J80" s="3">
-        <v>360</v>
-      </c>
-      <c r="K80" s="3">
-        <v>10</v>
-      </c>
-      <c r="L80" s="3">
-        <v>90</v>
-      </c>
-      <c r="M80" s="3">
-        <v>360</v>
-      </c>
-      <c r="N80" s="3">
-        <v>10</v>
-      </c>
-      <c r="O80" s="3">
-        <v>6</v>
-      </c>
-      <c r="P80" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R80" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S80" s="3">
-        <v>100</v>
-      </c>
-      <c r="T80" s="3">
-        <v>100</v>
-      </c>
-      <c r="U80" s="3">
-        <v>100</v>
-      </c>
-      <c r="V80" s="3">
-        <v>2</v>
-      </c>
-      <c r="W80" s="3">
-        <v>2</v>
-      </c>
-      <c r="X80" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y80" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z80" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA80" s="3">
-        <v>2</v>
-      </c>
-      <c r="AB80" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC80" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD80" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE80" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF80" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG80" s="3">
-        <v>2</v>
-      </c>
-      <c r="AH80" s="3">
-        <v>2</v>
-      </c>
-      <c r="AI80" s="3">
-        <v>2</v>
-      </c>
-      <c r="AJ80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AK80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AL80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AM80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AN80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AO80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AP80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AQ80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AR80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AS80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AT80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AU80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AV80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AW80" s="3">
-        <v>100</v>
-      </c>
-      <c r="AX80" s="3">
-        <v>10</v>
-      </c>
-      <c r="AY80" s="3">
-        <v>10</v>
-      </c>
-      <c r="AZ80" s="3">
-        <v>10</v>
-      </c>
-      <c r="BA80" s="3">
-        <v>10</v>
-      </c>
-      <c r="BB80" s="3">
-        <v>10</v>
-      </c>
-      <c r="BC80" s="3">
-        <v>10</v>
-      </c>
-      <c r="BD80" s="3">
-        <v>10</v>
-      </c>
-      <c r="BE80" s="3">
-        <v>10</v>
-      </c>
-      <c r="BF80" s="3">
-        <v>10</v>
-      </c>
-      <c r="BG80" s="3">
-        <v>10</v>
-      </c>
-      <c r="BH80" s="3">
-        <v>10</v>
-      </c>
-      <c r="BI80" s="3">
-        <v>10</v>
-      </c>
-      <c r="BJ80" s="3">
-        <v>10</v>
-      </c>
-      <c r="BK80" s="3">
-        <v>10</v>
-      </c>
-      <c r="BL80" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="BM80" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="BN80" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="BO80" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="BP80" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="BQ80" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="BR80" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BS80" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BT80" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BU80" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BV80" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BW80" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BX80" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BY80" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="B81" s="2">
         <v>68</v>
@@ -4415,311 +4215,527 @@
       <c r="D81" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" t="s">
+        <v>210</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="3">
+        <v>90</v>
+      </c>
+      <c r="J81" s="3">
+        <v>360</v>
+      </c>
+      <c r="K81" s="3">
+        <v>10</v>
+      </c>
+      <c r="L81" s="3">
+        <v>90</v>
+      </c>
+      <c r="M81" s="3">
+        <v>360</v>
+      </c>
+      <c r="N81" s="3">
+        <v>10</v>
+      </c>
+      <c r="O81" s="3">
+        <v>6</v>
+      </c>
+      <c r="P81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>2</v>
+      </c>
+      <c r="W81" s="3">
+        <v>2</v>
+      </c>
+      <c r="X81" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF81" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG81" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH81" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI81" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AL81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AM81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AN81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AP81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AQ81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AR81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AS81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AT81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AU81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AV81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AW81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AX81" s="3">
+        <v>10</v>
+      </c>
+      <c r="AY81" s="3">
+        <v>10</v>
+      </c>
+      <c r="AZ81" s="3">
+        <v>10</v>
+      </c>
+      <c r="BA81" s="3">
+        <v>10</v>
+      </c>
+      <c r="BB81" s="3">
+        <v>10</v>
+      </c>
+      <c r="BC81" s="3">
+        <v>10</v>
+      </c>
+      <c r="BD81" s="3">
+        <v>10</v>
+      </c>
+      <c r="BE81" s="3">
+        <v>10</v>
+      </c>
+      <c r="BF81" s="3">
+        <v>10</v>
+      </c>
+      <c r="BG81" s="3">
+        <v>10</v>
+      </c>
+      <c r="BH81" s="3">
+        <v>10</v>
+      </c>
+      <c r="BI81" s="3">
+        <v>10</v>
+      </c>
+      <c r="BJ81" s="3">
+        <v>10</v>
+      </c>
+      <c r="BK81" s="3">
+        <v>10</v>
+      </c>
+      <c r="BL81" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BM81" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BN81" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BO81" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BP81" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BQ81" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BR81" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BS81" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BT81" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BU81" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV81" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BW81" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX81" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BY81" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" s="2">
+        <v>69</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G81" s="2" t="str">
-        <f>"[ "&amp;G80&amp;", "</f>
+      <c r="G82" s="2" t="str">
+        <f>"[ "&amp;G81&amp;", "</f>
         <v xml:space="preserve">[ inf, </v>
       </c>
-      <c r="H81" s="2" t="str">
-        <f>H80&amp;", "</f>
+      <c r="H82" s="2" t="str">
+        <f>H81&amp;", "</f>
         <v xml:space="preserve">1, </v>
       </c>
-      <c r="I81" s="2" t="str">
-        <f t="shared" ref="I81" si="52">I80&amp;", "</f>
+      <c r="I82" s="2" t="str">
+        <f t="shared" ref="I82" si="52">I81&amp;", "</f>
         <v xml:space="preserve">90, </v>
       </c>
-      <c r="J81" s="2" t="str">
-        <f t="shared" ref="J81" si="53">J80&amp;", "</f>
+      <c r="J82" s="2" t="str">
+        <f t="shared" ref="J82" si="53">J81&amp;", "</f>
         <v xml:space="preserve">360, </v>
       </c>
-      <c r="K81" s="2" t="str">
-        <f t="shared" ref="K81" si="54">K80&amp;", "</f>
+      <c r="K82" s="2" t="str">
+        <f t="shared" ref="K82" si="54">K81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="L81" s="2" t="str">
-        <f t="shared" ref="L81" si="55">L80&amp;", "</f>
+      <c r="L82" s="2" t="str">
+        <f t="shared" ref="L82" si="55">L81&amp;", "</f>
         <v xml:space="preserve">90, </v>
       </c>
-      <c r="M81" s="2" t="str">
-        <f t="shared" ref="M81" si="56">M80&amp;", "</f>
+      <c r="M82" s="2" t="str">
+        <f t="shared" ref="M82" si="56">M81&amp;", "</f>
         <v xml:space="preserve">360, </v>
       </c>
-      <c r="N81" s="2" t="str">
-        <f t="shared" ref="N81" si="57">N80&amp;", "</f>
+      <c r="N82" s="2" t="str">
+        <f t="shared" ref="N82" si="57">N81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="O81" s="2" t="str">
-        <f t="shared" ref="O81" si="58">O80&amp;", "</f>
+      <c r="O82" s="2" t="str">
+        <f t="shared" ref="O82" si="58">O81&amp;", "</f>
         <v xml:space="preserve">6, </v>
       </c>
-      <c r="P81" s="2" t="str">
-        <f t="shared" ref="P81" si="59">P80&amp;", "</f>
+      <c r="P82" s="2" t="str">
+        <f t="shared" ref="P82" si="59">P81&amp;", "</f>
         <v xml:space="preserve">1000, </v>
       </c>
-      <c r="Q81" s="2" t="str">
-        <f t="shared" ref="Q81" si="60">Q80&amp;", "</f>
+      <c r="Q82" s="2" t="str">
+        <f t="shared" ref="Q82" si="60">Q81&amp;", "</f>
         <v xml:space="preserve">1000, </v>
       </c>
-      <c r="R81" s="2" t="str">
-        <f t="shared" ref="R81" si="61">R80&amp;", "</f>
+      <c r="R82" s="2" t="str">
+        <f t="shared" ref="R82" si="61">R81&amp;", "</f>
         <v xml:space="preserve">1000, </v>
       </c>
-      <c r="S81" s="2" t="str">
-        <f t="shared" ref="S81" si="62">S80&amp;", "</f>
+      <c r="S82" s="2" t="str">
+        <f t="shared" ref="S82" si="62">S81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="T81" s="2" t="str">
-        <f t="shared" ref="T81" si="63">T80&amp;", "</f>
+      <c r="T82" s="2" t="str">
+        <f t="shared" ref="T82" si="63">T81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="U81" s="2" t="str">
-        <f t="shared" ref="U81" si="64">U80&amp;", "</f>
+      <c r="U82" s="2" t="str">
+        <f t="shared" ref="U82" si="64">U81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="V81" s="2" t="str">
-        <f t="shared" ref="V81" si="65">V80&amp;", "</f>
+      <c r="V82" s="2" t="str">
+        <f t="shared" ref="V82" si="65">V81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="W81" s="2" t="str">
-        <f t="shared" ref="W81" si="66">W80&amp;", "</f>
+      <c r="W82" s="2" t="str">
+        <f t="shared" ref="W82" si="66">W81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="X81" s="2" t="str">
-        <f t="shared" ref="X81" si="67">X80&amp;", "</f>
+      <c r="X82" s="2" t="str">
+        <f t="shared" ref="X82" si="67">X81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="Y81" s="2" t="str">
-        <f t="shared" ref="Y81" si="68">Y80&amp;", "</f>
+      <c r="Y82" s="2" t="str">
+        <f t="shared" ref="Y82" si="68">Y81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="Z81" s="2" t="str">
-        <f t="shared" ref="Z81" si="69">Z80&amp;", "</f>
+      <c r="Z82" s="2" t="str">
+        <f t="shared" ref="Z82" si="69">Z81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="AA81" s="2" t="str">
-        <f t="shared" ref="AA81" si="70">AA80&amp;", "</f>
+      <c r="AA82" s="2" t="str">
+        <f t="shared" ref="AA82" si="70">AA81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="AB81" s="2" t="str">
-        <f t="shared" ref="AB81" si="71">AB80&amp;", "</f>
+      <c r="AB82" s="2" t="str">
+        <f t="shared" ref="AB82" si="71">AB81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="AC81" s="2" t="str">
-        <f t="shared" ref="AC81" si="72">AC80&amp;", "</f>
+      <c r="AC82" s="2" t="str">
+        <f t="shared" ref="AC82" si="72">AC81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="AD81" s="2" t="str">
-        <f t="shared" ref="AD81" si="73">AD80&amp;", "</f>
+      <c r="AD82" s="2" t="str">
+        <f t="shared" ref="AD82" si="73">AD81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="AE81" s="2" t="str">
-        <f t="shared" ref="AE81" si="74">AE80&amp;", "</f>
+      <c r="AE82" s="2" t="str">
+        <f t="shared" ref="AE82" si="74">AE81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="AF81" s="2" t="str">
-        <f t="shared" ref="AF81" si="75">AF80&amp;", "</f>
+      <c r="AF82" s="2" t="str">
+        <f t="shared" ref="AF82" si="75">AF81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="AG81" s="2" t="str">
-        <f t="shared" ref="AG81" si="76">AG80&amp;", "</f>
+      <c r="AG82" s="2" t="str">
+        <f t="shared" ref="AG82" si="76">AG81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="AH81" s="2" t="str">
-        <f t="shared" ref="AH81" si="77">AH80&amp;", "</f>
+      <c r="AH82" s="2" t="str">
+        <f t="shared" ref="AH82" si="77">AH81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="AI81" s="2" t="str">
-        <f t="shared" ref="AI81" si="78">AI80&amp;", "</f>
+      <c r="AI82" s="2" t="str">
+        <f t="shared" ref="AI82" si="78">AI81&amp;", "</f>
         <v xml:space="preserve">2, </v>
       </c>
-      <c r="AJ81" s="2" t="str">
-        <f t="shared" ref="AJ81" si="79">AJ80&amp;", "</f>
+      <c r="AJ82" s="2" t="str">
+        <f t="shared" ref="AJ82" si="79">AJ81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AK81" s="2" t="str">
-        <f t="shared" ref="AK81" si="80">AK80&amp;", "</f>
+      <c r="AK82" s="2" t="str">
+        <f t="shared" ref="AK82" si="80">AK81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AL81" s="2" t="str">
-        <f t="shared" ref="AL81" si="81">AL80&amp;", "</f>
+      <c r="AL82" s="2" t="str">
+        <f t="shared" ref="AL82" si="81">AL81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AM81" s="2" t="str">
-        <f t="shared" ref="AM81" si="82">AM80&amp;", "</f>
+      <c r="AM82" s="2" t="str">
+        <f t="shared" ref="AM82" si="82">AM81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AN81" s="2" t="str">
-        <f t="shared" ref="AN81" si="83">AN80&amp;", "</f>
+      <c r="AN82" s="2" t="str">
+        <f t="shared" ref="AN82" si="83">AN81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AO81" s="2" t="str">
-        <f t="shared" ref="AO81" si="84">AO80&amp;", "</f>
+      <c r="AO82" s="2" t="str">
+        <f t="shared" ref="AO82" si="84">AO81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AP81" s="2" t="str">
-        <f t="shared" ref="AP81" si="85">AP80&amp;", "</f>
+      <c r="AP82" s="2" t="str">
+        <f t="shared" ref="AP82" si="85">AP81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AQ81" s="2" t="str">
-        <f t="shared" ref="AQ81" si="86">AQ80&amp;", "</f>
+      <c r="AQ82" s="2" t="str">
+        <f t="shared" ref="AQ82" si="86">AQ81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AR81" s="2" t="str">
-        <f t="shared" ref="AR81" si="87">AR80&amp;", "</f>
+      <c r="AR82" s="2" t="str">
+        <f t="shared" ref="AR82" si="87">AR81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AS81" s="2" t="str">
-        <f t="shared" ref="AS81" si="88">AS80&amp;", "</f>
+      <c r="AS82" s="2" t="str">
+        <f t="shared" ref="AS82" si="88">AS81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AT81" s="2" t="str">
-        <f t="shared" ref="AT81" si="89">AT80&amp;", "</f>
+      <c r="AT82" s="2" t="str">
+        <f t="shared" ref="AT82" si="89">AT81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AU81" s="2" t="str">
-        <f t="shared" ref="AU81" si="90">AU80&amp;", "</f>
+      <c r="AU82" s="2" t="str">
+        <f t="shared" ref="AU82" si="90">AU81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AV81" s="2" t="str">
-        <f t="shared" ref="AV81" si="91">AV80&amp;", "</f>
+      <c r="AV82" s="2" t="str">
+        <f t="shared" ref="AV82" si="91">AV81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AW81" s="2" t="str">
-        <f t="shared" ref="AW81" si="92">AW80&amp;", "</f>
+      <c r="AW82" s="2" t="str">
+        <f t="shared" ref="AW82" si="92">AW81&amp;", "</f>
         <v xml:space="preserve">100, </v>
       </c>
-      <c r="AX81" s="2" t="str">
-        <f t="shared" ref="AX81" si="93">AX80&amp;", "</f>
+      <c r="AX82" s="2" t="str">
+        <f t="shared" ref="AX82" si="93">AX81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="AY81" s="2" t="str">
-        <f t="shared" ref="AY81" si="94">AY80&amp;", "</f>
+      <c r="AY82" s="2" t="str">
+        <f t="shared" ref="AY82" si="94">AY81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="AZ81" s="2" t="str">
-        <f t="shared" ref="AZ81" si="95">AZ80&amp;", "</f>
+      <c r="AZ82" s="2" t="str">
+        <f t="shared" ref="AZ82" si="95">AZ81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="BA81" s="2" t="str">
-        <f t="shared" ref="BA81" si="96">BA80&amp;", "</f>
+      <c r="BA82" s="2" t="str">
+        <f t="shared" ref="BA82" si="96">BA81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="BB81" s="2" t="str">
-        <f t="shared" ref="BB81" si="97">BB80&amp;", "</f>
+      <c r="BB82" s="2" t="str">
+        <f t="shared" ref="BB82" si="97">BB81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="BC81" s="2" t="str">
-        <f t="shared" ref="BC81" si="98">BC80&amp;", "</f>
+      <c r="BC82" s="2" t="str">
+        <f t="shared" ref="BC82" si="98">BC81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="BD81" s="2" t="str">
-        <f t="shared" ref="BD81" si="99">BD80&amp;", "</f>
+      <c r="BD82" s="2" t="str">
+        <f t="shared" ref="BD82" si="99">BD81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="BE81" s="2" t="str">
-        <f t="shared" ref="BE81" si="100">BE80&amp;", "</f>
+      <c r="BE82" s="2" t="str">
+        <f t="shared" ref="BE82" si="100">BE81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="BF81" s="2" t="str">
-        <f t="shared" ref="BF81" si="101">BF80&amp;", "</f>
+      <c r="BF82" s="2" t="str">
+        <f t="shared" ref="BF82" si="101">BF81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="BG81" s="2" t="str">
-        <f t="shared" ref="BG81" si="102">BG80&amp;", "</f>
+      <c r="BG82" s="2" t="str">
+        <f t="shared" ref="BG82" si="102">BG81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="BH81" s="2" t="str">
-        <f t="shared" ref="BH81" si="103">BH80&amp;", "</f>
+      <c r="BH82" s="2" t="str">
+        <f t="shared" ref="BH82" si="103">BH81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="BI81" s="2" t="str">
-        <f t="shared" ref="BI81" si="104">BI80&amp;", "</f>
+      <c r="BI82" s="2" t="str">
+        <f t="shared" ref="BI82" si="104">BI81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="BJ81" s="2" t="str">
-        <f t="shared" ref="BJ81" si="105">BJ80&amp;", "</f>
+      <c r="BJ82" s="2" t="str">
+        <f t="shared" ref="BJ82" si="105">BJ81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="BK81" s="2" t="str">
-        <f t="shared" ref="BK81" si="106">BK80&amp;", "</f>
+      <c r="BK82" s="2" t="str">
+        <f t="shared" ref="BK82" si="106">BK81&amp;", "</f>
         <v xml:space="preserve">10, </v>
       </c>
-      <c r="BL81" s="2" t="str">
-        <f t="shared" ref="BL81" si="107">BL80&amp;", "</f>
+      <c r="BL82" s="2" t="str">
+        <f t="shared" ref="BL82" si="107">BL81&amp;", "</f>
         <v xml:space="preserve">inf, </v>
       </c>
-      <c r="BM81" s="2" t="str">
-        <f t="shared" ref="BM81" si="108">BM80&amp;", "</f>
+      <c r="BM82" s="2" t="str">
+        <f t="shared" ref="BM82" si="108">BM81&amp;", "</f>
         <v xml:space="preserve">inf, </v>
       </c>
-      <c r="BN81" s="2" t="str">
-        <f t="shared" ref="BN81" si="109">BN80&amp;", "</f>
+      <c r="BN82" s="2" t="str">
+        <f t="shared" ref="BN82" si="109">BN81&amp;", "</f>
         <v xml:space="preserve">inf, </v>
       </c>
-      <c r="BO81" s="2" t="str">
-        <f t="shared" ref="BO81" si="110">BO80&amp;", "</f>
+      <c r="BO82" s="2" t="str">
+        <f t="shared" ref="BO82" si="110">BO81&amp;", "</f>
         <v xml:space="preserve">inf, </v>
       </c>
-      <c r="BP81" s="2" t="str">
-        <f t="shared" ref="BP81" si="111">BP80&amp;", "</f>
+      <c r="BP82" s="2" t="str">
+        <f t="shared" ref="BP82" si="111">BP81&amp;", "</f>
         <v xml:space="preserve">inf, </v>
       </c>
-      <c r="BQ81" s="2" t="str">
-        <f t="shared" ref="BQ81" si="112">BQ80&amp;", "</f>
+      <c r="BQ82" s="2" t="str">
+        <f t="shared" ref="BQ82" si="112">BQ81&amp;", "</f>
         <v xml:space="preserve">inf, </v>
       </c>
-      <c r="BR81" s="2" t="str">
-        <f t="shared" ref="BR81" si="113">BR80&amp;", "</f>
+      <c r="BR82" s="2" t="str">
+        <f t="shared" ref="BR82" si="113">BR81&amp;", "</f>
         <v xml:space="preserve">1, </v>
       </c>
-      <c r="BS81" s="2" t="str">
-        <f t="shared" ref="BS81" si="114">BS80&amp;", "</f>
+      <c r="BS82" s="2" t="str">
+        <f t="shared" ref="BS82" si="114">BS81&amp;", "</f>
         <v xml:space="preserve">1, </v>
       </c>
-      <c r="BT81" s="2" t="str">
-        <f t="shared" ref="BT81" si="115">BT80&amp;", "</f>
+      <c r="BT82" s="2" t="str">
+        <f t="shared" ref="BT82" si="115">BT81&amp;", "</f>
         <v xml:space="preserve">1, </v>
       </c>
-      <c r="BU81" s="2" t="str">
-        <f t="shared" ref="BU81" si="116">BU80&amp;", "</f>
+      <c r="BU82" s="2" t="str">
+        <f t="shared" ref="BU82" si="116">BU81&amp;", "</f>
         <v xml:space="preserve">1, </v>
       </c>
-      <c r="BV81" s="2" t="str">
-        <f t="shared" ref="BV81" si="117">BV80&amp;", "</f>
+      <c r="BV82" s="2" t="str">
+        <f t="shared" ref="BV82" si="117">BV81&amp;", "</f>
         <v xml:space="preserve">1, </v>
       </c>
-      <c r="BW81" s="2" t="str">
-        <f t="shared" ref="BW81" si="118">BW80&amp;", "</f>
+      <c r="BW82" s="2" t="str">
+        <f t="shared" ref="BW82" si="118">BW81&amp;", "</f>
         <v xml:space="preserve">1, </v>
       </c>
-      <c r="BX81" s="2" t="str">
+      <c r="BX82" s="2" t="str">
         <f t="shared" si="51"/>
         <v xml:space="preserve">1, </v>
       </c>
-      <c r="BY81" s="2" t="str">
-        <f>BY80&amp;"]"</f>
+      <c r="BY82" s="2" t="str">
+        <f>BY81&amp;"]"</f>
         <v>1]</v>
-      </c>
-    </row>
-    <row r="82" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B82" s="2">
-        <v>69</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B83" s="2">
         <v>70</v>
@@ -4728,6 +4744,20 @@
         <v>207</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="2">
+        <v>71</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>208</v>
       </c>
     </row>
